--- a/docentes/Saucedo Rivalcoba Liliana Guadalupe - Estadisticos 20242.xlsx
+++ b/docentes/Saucedo Rivalcoba Liliana Guadalupe - Estadisticos 20242.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="22">
   <si>
     <t>Mat</t>
   </si>
@@ -65,6 +65,24 @@
   </si>
   <si>
     <t>Reprobadas</t>
+  </si>
+  <si>
+    <t>OREA</t>
+  </si>
+  <si>
+    <t>PALMA</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>RANGEL</t>
+  </si>
+  <si>
+    <t>JOSE MANUEL</t>
+  </si>
+  <si>
+    <t>ROBERTO</t>
   </si>
 </sst>
 </file>
@@ -536,16 +554,19 @@
         <v>39</v>
       </c>
       <c r="D2">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="E2">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>56.41</v>
+      </c>
+      <c r="H2">
+        <v>9.5</v>
       </c>
     </row>
   </sheetData>
@@ -613,7 +634,7 @@
         <v>94.87</v>
       </c>
       <c r="H2">
-        <v>8.800000000000001</v>
+        <v>9.1</v>
       </c>
     </row>
   </sheetData>
@@ -623,7 +644,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -656,6 +677,52 @@
         <v>15</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>21330051920053</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>21330051920242</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docentes/Saucedo Rivalcoba Liliana Guadalupe - Estadisticos 20242.xlsx
+++ b/docentes/Saucedo Rivalcoba Liliana Guadalupe - Estadisticos 20242.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="16">
   <si>
     <t>Mat</t>
   </si>
@@ -65,24 +65,6 @@
   </si>
   <si>
     <t>Reprobadas</t>
-  </si>
-  <si>
-    <t>OREA</t>
-  </si>
-  <si>
-    <t>PALMA</t>
-  </si>
-  <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
-    <t>RANGEL</t>
-  </si>
-  <si>
-    <t>JOSE MANUEL</t>
-  </si>
-  <si>
-    <t>ROBERTO</t>
   </si>
 </sst>
 </file>
@@ -554,19 +536,19 @@
         <v>39</v>
       </c>
       <c r="D2">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="G2">
-        <v>56.41</v>
+        <v>100</v>
       </c>
       <c r="H2">
-        <v>9.5</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -625,16 +607,16 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G2">
-        <v>94.87</v>
+        <v>100</v>
       </c>
       <c r="H2">
-        <v>9.1</v>
+        <v>9.300000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -644,7 +626,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -677,52 +659,6 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
-        <v>21330051920053</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>21330051920242</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
